--- a/Data_clean/MCAS/Estados_US/Edos_USA_2014/WEST_VIRGINIA_2014.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2014/WEST_VIRGINIA_2014.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -507,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Las Rosas</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -787,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -961,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -974,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>León</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -1122,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1135,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -1148,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1301,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Eloxochitlán</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1436,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -1449,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1462,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1475,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1488,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1501,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1514,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1527,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1540,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -1553,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -1566,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1597,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -1610,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -1623,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1636,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -1649,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1662,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1675,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -1688,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Taretan</t>
@@ -1701,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1758,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1789,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1802,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1833,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Ayotzintepec</t>
@@ -1846,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -1859,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Monjas</t>
@@ -1872,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1885,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -1898,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Reyes Etla</t>
@@ -1911,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>San Gabriel Mixtepec</t>
@@ -1924,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -1937,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -1950,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>San Miguel Amatitlán</t>
@@ -1963,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec - Distr. 22 -</t>
@@ -1976,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1989,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>San Vicente Coatlán</t>
@@ -2002,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -2015,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -2028,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Santiago Camotlán</t>
@@ -2041,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -2054,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Santos Reyes Tepejillo</t>
@@ -2067,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -2080,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Zapotitlán Lagunas</t>
@@ -2093,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2124,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Atzitzintla</t>
@@ -2137,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -2150,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -2163,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -2176,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -2189,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2202,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -2215,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2246,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -2259,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2290,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Axtla De Terrazas</t>
@@ -2303,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -2316,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -2329,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -2342,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -2355,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2386,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2417,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -2430,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2461,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2492,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -2505,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -2518,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -2531,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Chocamán</t>
@@ -2544,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -2557,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -2570,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -2583,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Mariano Escobedo</t>
@@ -2596,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -2609,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -2622,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -2635,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2648,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -2661,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -2674,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -2687,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -2700,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -2713,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2744,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -2757,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Total</t>
